--- a/contratos/contratos-11-2009.xlsx
+++ b/contratos/contratos-11-2009.xlsx
@@ -454,16 +454,16 @@
     <t>VIVESCAS S.R.L.</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
-  </si>
-  <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
+  </si>
+  <si>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>LEIVA GISELA NOEMI</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>RETAMAR JOSE LUIS</t>
@@ -742,289 +742,289 @@
     <t>44</t>
   </si>
   <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>62.499,30</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>35.000,00</t>
-  </si>
-  <si>
-    <t>1.289,60</t>
-  </si>
-  <si>
-    <t>36,00</t>
-  </si>
-  <si>
-    <t>9.900,01</t>
-  </si>
-  <si>
-    <t>21.849,36</t>
-  </si>
-  <si>
-    <t>78.794,20</t>
-  </si>
-  <si>
-    <t>6.023,64</t>
-  </si>
-  <si>
-    <t>145,31</t>
-  </si>
-  <si>
-    <t>4.379,69</t>
-  </si>
-  <si>
-    <t>7.206,67</t>
-  </si>
-  <si>
-    <t>210,90</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>78,00</t>
-  </si>
-  <si>
-    <t>355,50</t>
-  </si>
-  <si>
-    <t>301,00</t>
-  </si>
-  <si>
-    <t>7,50</t>
-  </si>
-  <si>
-    <t>139,78</t>
-  </si>
-  <si>
-    <t>379,25</t>
-  </si>
-  <si>
-    <t>678,00</t>
-  </si>
-  <si>
-    <t>206,24</t>
-  </si>
-  <si>
-    <t>624,24</t>
-  </si>
-  <si>
-    <t>8.624,00</t>
-  </si>
-  <si>
-    <t>482,00</t>
-  </si>
-  <si>
-    <t>704,00</t>
-  </si>
-  <si>
-    <t>3.184,00</t>
-  </si>
-  <si>
-    <t>224,00</t>
-  </si>
-  <si>
-    <t>1.216,00</t>
-  </si>
-  <si>
-    <t>9.024,00</t>
-  </si>
-  <si>
-    <t>368,00</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>10.166,00</t>
-  </si>
-  <si>
-    <t>2.593,20</t>
-  </si>
-  <si>
-    <t>307,00</t>
-  </si>
-  <si>
-    <t>174,00</t>
-  </si>
-  <si>
-    <t>520,00</t>
-  </si>
-  <si>
-    <t>913,00</t>
-  </si>
-  <si>
-    <t>3.555,00</t>
-  </si>
-  <si>
-    <t>26,00</t>
-  </si>
-  <si>
-    <t>2,87</t>
-  </si>
-  <si>
-    <t>514.338,80</t>
-  </si>
-  <si>
-    <t>340,00</t>
-  </si>
-  <si>
-    <t>13,58</t>
-  </si>
-  <si>
-    <t>774,00</t>
-  </si>
-  <si>
-    <t>4.736,18</t>
-  </si>
-  <si>
-    <t>1.701,28</t>
-  </si>
-  <si>
-    <t>260,00</t>
-  </si>
-  <si>
-    <t>412,50</t>
-  </si>
-  <si>
-    <t>2.453,50</t>
-  </si>
-  <si>
-    <t>36,65</t>
-  </si>
-  <si>
-    <t>5.552,30</t>
-  </si>
-  <si>
-    <t>580,00</t>
-  </si>
-  <si>
-    <t>62,06</t>
-  </si>
-  <si>
-    <t>50,00</t>
-  </si>
-  <si>
-    <t>165,82</t>
-  </si>
-  <si>
-    <t>35,45</t>
-  </si>
-  <si>
-    <t>975,00</t>
-  </si>
-  <si>
-    <t>4.440,00</t>
-  </si>
-  <si>
-    <t>12.705,00</t>
-  </si>
-  <si>
-    <t>1.576,82</t>
-  </si>
-  <si>
-    <t>1.034,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>1.829,52</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>1.628,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>13.077,50</t>
-  </si>
-  <si>
-    <t>44,00</t>
-  </si>
-  <si>
-    <t>15,00</t>
-  </si>
-  <si>
-    <t>115,00</t>
-  </si>
-  <si>
-    <t>4.505,00</t>
-  </si>
-  <si>
-    <t>127,26</t>
-  </si>
-  <si>
-    <t>9.081,00</t>
-  </si>
-  <si>
-    <t>390,00</t>
-  </si>
-  <si>
-    <t>92,00</t>
-  </si>
-  <si>
-    <t>81,73</t>
-  </si>
-  <si>
-    <t>75,00</t>
-  </si>
-  <si>
-    <t>3.104,05</t>
-  </si>
-  <si>
-    <t>12.420,00</t>
-  </si>
-  <si>
-    <t>1.198,35</t>
-  </si>
-  <si>
-    <t>190,00</t>
-  </si>
-  <si>
-    <t>7.248,00</t>
-  </si>
-  <si>
-    <t>780,96</t>
-  </si>
-  <si>
-    <t>1.248,00</t>
-  </si>
-  <si>
-    <t>51.234,00</t>
-  </si>
-  <si>
-    <t>271.510,50</t>
-  </si>
-  <si>
-    <t>3.170,81</t>
-  </si>
-  <si>
-    <t>242,00</t>
-  </si>
-  <si>
-    <t>486,00</t>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>62499.30</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>35000.00</t>
+  </si>
+  <si>
+    <t>1289.60</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>9900.01</t>
+  </si>
+  <si>
+    <t>21849.36</t>
+  </si>
+  <si>
+    <t>78794.20</t>
+  </si>
+  <si>
+    <t>6023.64</t>
+  </si>
+  <si>
+    <t>145.31</t>
+  </si>
+  <si>
+    <t>4379.69</t>
+  </si>
+  <si>
+    <t>7206.67</t>
+  </si>
+  <si>
+    <t>210.90</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>355.50</t>
+  </si>
+  <si>
+    <t>301.00</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>139.78</t>
+  </si>
+  <si>
+    <t>379.25</t>
+  </si>
+  <si>
+    <t>678.00</t>
+  </si>
+  <si>
+    <t>206.24</t>
+  </si>
+  <si>
+    <t>624.24</t>
+  </si>
+  <si>
+    <t>8624.00</t>
+  </si>
+  <si>
+    <t>482.00</t>
+  </si>
+  <si>
+    <t>704.00</t>
+  </si>
+  <si>
+    <t>3184.00</t>
+  </si>
+  <si>
+    <t>224.00</t>
+  </si>
+  <si>
+    <t>1216.00</t>
+  </si>
+  <si>
+    <t>9024.00</t>
+  </si>
+  <si>
+    <t>368.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>10166.00</t>
+  </si>
+  <si>
+    <t>2593.20</t>
+  </si>
+  <si>
+    <t>307.00</t>
+  </si>
+  <si>
+    <t>174.00</t>
+  </si>
+  <si>
+    <t>520.00</t>
+  </si>
+  <si>
+    <t>913.00</t>
+  </si>
+  <si>
+    <t>3555.00</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>2.87</t>
+  </si>
+  <si>
+    <t>514338.80</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>13.58</t>
+  </si>
+  <si>
+    <t>774.00</t>
+  </si>
+  <si>
+    <t>4736.18</t>
+  </si>
+  <si>
+    <t>1701.28</t>
+  </si>
+  <si>
+    <t>260.00</t>
+  </si>
+  <si>
+    <t>412.50</t>
+  </si>
+  <si>
+    <t>2453.50</t>
+  </si>
+  <si>
+    <t>36.65</t>
+  </si>
+  <si>
+    <t>5552.30</t>
+  </si>
+  <si>
+    <t>580.00</t>
+  </si>
+  <si>
+    <t>62.06</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>165.82</t>
+  </si>
+  <si>
+    <t>35.45</t>
+  </si>
+  <si>
+    <t>975.00</t>
+  </si>
+  <si>
+    <t>4440.00</t>
+  </si>
+  <si>
+    <t>12705.00</t>
+  </si>
+  <si>
+    <t>1576.82</t>
+  </si>
+  <si>
+    <t>1034.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>1829.52</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>1628.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>13077.50</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>4505.00</t>
+  </si>
+  <si>
+    <t>127.26</t>
+  </si>
+  <si>
+    <t>9081.00</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>81.73</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>3104.05</t>
+  </si>
+  <si>
+    <t>12420.00</t>
+  </si>
+  <si>
+    <t>1198.35</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>7248.00</t>
+  </si>
+  <si>
+    <t>780.96</t>
+  </si>
+  <si>
+    <t>1248.00</t>
+  </si>
+  <si>
+    <t>51234.00</t>
+  </si>
+  <si>
+    <t>271510.50</t>
+  </si>
+  <si>
+    <t>3170.81</t>
+  </si>
+  <si>
+    <t>242.00</t>
+  </si>
+  <si>
+    <t>486.00</t>
   </si>
 </sst>
 </file>
